--- a/CR.21718.CSE12INTL.xlsx
+++ b/CR.21718.CSE12INTL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INITIAL INPUT" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="178">
   <si>
     <t>J</t>
   </si>
@@ -693,6 +693,36 @@
   </si>
   <si>
     <t>13-3983-371</t>
+  </si>
+  <si>
+    <t>QCH01</t>
+  </si>
+  <si>
+    <t>QCH02</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>PS01</t>
+  </si>
+  <si>
+    <t>PS02</t>
+  </si>
+  <si>
+    <t>PS03</t>
+  </si>
+  <si>
+    <t>PS04</t>
+  </si>
+  <si>
+    <t>PS05</t>
+  </si>
+  <si>
+    <t>PS06</t>
+  </si>
+  <si>
+    <t>PS07</t>
   </si>
 </sst>
 </file>
@@ -10905,7 +10935,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E3"/>
     </sheetView>
   </sheetViews>
@@ -11925,25 +11955,25 @@
         <f>IF(NAMES!D2="","",NAMES!D2)</f>
         <v>BSCS-MOBILE TECH TRACK-2</v>
       </c>
-      <c r="E9" s="82" t="str">
+      <c r="E9" s="82">
         <f>IF(PRELIM!P9="","",$E$8*PRELIM!P9)</f>
-        <v/>
-      </c>
-      <c r="F9" s="83" t="str">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="F9" s="83">
         <f>IF(PRELIM!AB9="","",$F$8*PRELIM!AB9)</f>
-        <v/>
-      </c>
-      <c r="G9" s="83" t="str">
+        <v>28.359375</v>
+      </c>
+      <c r="G9" s="83">
         <f>IF(PRELIM!AD9="","",$G$8*PRELIM!AD9)</f>
-        <v/>
-      </c>
-      <c r="H9" s="84" t="str">
+        <v>17.68</v>
+      </c>
+      <c r="H9" s="84">
         <f t="shared" ref="H9:H40" si="0">IF(SUM(E9:G9)=0,"",SUM(E9:G9))</f>
-        <v/>
-      </c>
-      <c r="I9" s="85" t="str">
+        <v>52.639375000000001</v>
+      </c>
+      <c r="I9" s="85">
         <f>IF(H9="","",VLOOKUP(H9,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>76</v>
       </c>
       <c r="J9" s="83" t="str">
         <f>IF(MIDTERM!P9="","",$J$8*MIDTERM!P9)</f>
@@ -12016,25 +12046,25 @@
         <f>IF(NAMES!D3="","",NAMES!D3)</f>
         <v>BSCS-MOBILE TECH TRACK-2</v>
       </c>
-      <c r="E10" s="82" t="str">
+      <c r="E10" s="82">
         <f>IF(PRELIM!P10="","",$E$8*PRELIM!P10)</f>
-        <v/>
-      </c>
-      <c r="F10" s="83" t="str">
+        <v>18.7</v>
+      </c>
+      <c r="F10" s="83">
         <f>IF(PRELIM!AB10="","",$F$8*PRELIM!AB10)</f>
-        <v/>
-      </c>
-      <c r="G10" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="G10" s="83">
         <f>IF(PRELIM!AD10="","",$G$8*PRELIM!AD10)</f>
-        <v/>
-      </c>
-      <c r="H10" s="84" t="str">
+        <v>21.76</v>
+      </c>
+      <c r="H10" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I10" s="85" t="str">
+        <v>73.460000000000008</v>
+      </c>
+      <c r="I10" s="85">
         <f>IF(H10="","",VLOOKUP(H10,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>87</v>
       </c>
       <c r="J10" s="83" t="str">
         <f>IF(MIDTERM!P10="","",$J$8*MIDTERM!P10)</f>
@@ -19013,8 +19043,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK135"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19275,8 +19305,12 @@
       <c r="B5" s="324"/>
       <c r="C5" s="325"/>
       <c r="D5" s="325"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
+      <c r="E5" s="108">
+        <v>15</v>
+      </c>
+      <c r="F5" s="108">
+        <v>15</v>
+      </c>
       <c r="G5" s="108"/>
       <c r="H5" s="108"/>
       <c r="I5" s="108"/>
@@ -19287,19 +19321,37 @@
       <c r="N5" s="108"/>
       <c r="O5" s="341"/>
       <c r="P5" s="312"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
+      <c r="Q5" s="108">
+        <v>40</v>
+      </c>
+      <c r="R5" s="108">
+        <v>40</v>
+      </c>
+      <c r="S5" s="108">
+        <v>40</v>
+      </c>
+      <c r="T5" s="108">
+        <v>40</v>
+      </c>
+      <c r="U5" s="108">
+        <v>40</v>
+      </c>
+      <c r="V5" s="108">
+        <v>40</v>
+      </c>
+      <c r="W5" s="108">
+        <v>40</v>
+      </c>
+      <c r="X5" s="108">
+        <v>40</v>
+      </c>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
       <c r="AA5" s="341"/>
       <c r="AB5" s="312"/>
-      <c r="AC5" s="110"/>
+      <c r="AC5" s="110">
+        <v>100</v>
+      </c>
       <c r="AD5" s="349"/>
       <c r="AE5" s="347"/>
       <c r="AF5" s="298"/>
@@ -19317,8 +19369,12 @@
       <c r="B6" s="316"/>
       <c r="C6" s="304"/>
       <c r="D6" s="304"/>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
+      <c r="E6" s="305" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="305" t="s">
+        <v>169</v>
+      </c>
       <c r="G6" s="305"/>
       <c r="H6" s="305"/>
       <c r="I6" s="305"/>
@@ -19327,24 +19383,40 @@
       <c r="L6" s="305"/>
       <c r="M6" s="305"/>
       <c r="N6" s="305"/>
-      <c r="O6" s="366" t="str">
+      <c r="O6" s="366">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="P6" s="312"/>
-      <c r="Q6" s="305"/>
-      <c r="R6" s="305"/>
-      <c r="S6" s="305"/>
-      <c r="T6" s="305"/>
-      <c r="U6" s="305"/>
-      <c r="V6" s="305"/>
-      <c r="W6" s="305"/>
-      <c r="X6" s="305"/>
+      <c r="Q6" s="305" t="s">
+        <v>170</v>
+      </c>
+      <c r="R6" s="305" t="s">
+        <v>171</v>
+      </c>
+      <c r="S6" s="305" t="s">
+        <v>172</v>
+      </c>
+      <c r="T6" s="305" t="s">
+        <v>173</v>
+      </c>
+      <c r="U6" s="305" t="s">
+        <v>174</v>
+      </c>
+      <c r="V6" s="305" t="s">
+        <v>175</v>
+      </c>
+      <c r="W6" s="305" t="s">
+        <v>176</v>
+      </c>
+      <c r="X6" s="305" t="s">
+        <v>177</v>
+      </c>
       <c r="Y6" s="305"/>
       <c r="Z6" s="305"/>
-      <c r="AA6" s="342" t="str">
+      <c r="AA6" s="342">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
-        <v/>
+        <v>320</v>
       </c>
       <c r="AB6" s="312"/>
       <c r="AC6" s="356">
@@ -19460,8 +19532,12 @@
         <f>CRS!D9</f>
         <v>BSCS-MOBILE TECH TRACK-2</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
+      <c r="E9" s="109">
+        <v>0</v>
+      </c>
+      <c r="F9" s="109">
+        <v>6</v>
+      </c>
       <c r="G9" s="109"/>
       <c r="H9" s="109"/>
       <c r="I9" s="109"/>
@@ -19470,44 +19546,62 @@
       <c r="L9" s="109"/>
       <c r="M9" s="109"/>
       <c r="N9" s="109"/>
-      <c r="O9" s="60" t="str">
+      <c r="O9" s="60">
         <f>IF(SUM(E9:N9)=0,"",SUM(E9:N9))</f>
-        <v/>
-      </c>
-      <c r="P9" s="67" t="str">
+        <v>6</v>
+      </c>
+      <c r="P9" s="67">
         <f>IF(O9="","",O9/$O$6*100)</f>
-        <v/>
-      </c>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="109"/>
+        <v>20</v>
+      </c>
+      <c r="Q9" s="109">
+        <v>35</v>
+      </c>
+      <c r="R9" s="109">
+        <v>35</v>
+      </c>
+      <c r="S9" s="109">
+        <v>40</v>
+      </c>
+      <c r="T9" s="109">
+        <v>40</v>
+      </c>
+      <c r="U9" s="109">
+        <v>35</v>
+      </c>
+      <c r="V9" s="109">
+        <v>40</v>
+      </c>
+      <c r="W9" s="109">
+        <v>40</v>
+      </c>
+      <c r="X9" s="109">
+        <v>10</v>
+      </c>
       <c r="Y9" s="109"/>
       <c r="Z9" s="109"/>
-      <c r="AA9" s="60" t="str">
+      <c r="AA9" s="60">
         <f>IF(SUM(Q9:Z9)=0,"",SUM(Q9:Z9))</f>
-        <v/>
-      </c>
-      <c r="AB9" s="67" t="str">
+        <v>275</v>
+      </c>
+      <c r="AB9" s="67">
         <f>IF(AA9="","",AA9/$AA$6*100)</f>
-        <v/>
-      </c>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="67" t="str">
+        <v>85.9375</v>
+      </c>
+      <c r="AC9" s="111">
+        <v>52</v>
+      </c>
+      <c r="AD9" s="67">
         <f>IF(AC9="","",AC9/$AC$5*100)</f>
-        <v/>
-      </c>
-      <c r="AE9" s="66" t="str">
+        <v>52</v>
+      </c>
+      <c r="AE9" s="66">
         <f>CRS!H9</f>
-        <v/>
-      </c>
-      <c r="AF9" s="64" t="str">
+        <v>52.639375000000001</v>
+      </c>
+      <c r="AF9" s="64">
         <f>CRS!I9</f>
-        <v/>
+        <v>76</v>
       </c>
       <c r="AG9" s="61"/>
       <c r="AH9" s="61"/>
@@ -19531,8 +19625,12 @@
         <f>CRS!D10</f>
         <v>BSCS-MOBILE TECH TRACK-2</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="E10" s="109">
+        <v>9</v>
+      </c>
+      <c r="F10" s="109">
+        <v>8</v>
+      </c>
       <c r="G10" s="109"/>
       <c r="H10" s="109"/>
       <c r="I10" s="109"/>
@@ -19541,44 +19639,62 @@
       <c r="L10" s="109"/>
       <c r="M10" s="109"/>
       <c r="N10" s="109"/>
-      <c r="O10" s="60" t="str">
+      <c r="O10" s="60">
         <f t="shared" ref="O10:O40" si="0">IF(SUM(E10:N10)=0,"",SUM(E10:N10))</f>
-        <v/>
-      </c>
-      <c r="P10" s="67" t="str">
+        <v>17</v>
+      </c>
+      <c r="P10" s="67">
         <f t="shared" ref="P10:P40" si="1">IF(O10="","",O10/$O$6*100)</f>
-        <v/>
-      </c>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="109"/>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="Q10" s="109">
+        <v>40</v>
+      </c>
+      <c r="R10" s="109">
+        <v>40</v>
+      </c>
+      <c r="S10" s="109">
+        <v>40</v>
+      </c>
+      <c r="T10" s="109">
+        <v>40</v>
+      </c>
+      <c r="U10" s="109">
+        <v>40</v>
+      </c>
+      <c r="V10" s="109">
+        <v>40</v>
+      </c>
+      <c r="W10" s="109">
+        <v>40</v>
+      </c>
+      <c r="X10" s="109">
+        <v>40</v>
+      </c>
       <c r="Y10" s="109"/>
       <c r="Z10" s="109"/>
-      <c r="AA10" s="60" t="str">
+      <c r="AA10" s="60">
         <f t="shared" ref="AA10:AA40" si="2">IF(SUM(Q10:Z10)=0,"",SUM(Q10:Z10))</f>
-        <v/>
-      </c>
-      <c r="AB10" s="67" t="str">
+        <v>320</v>
+      </c>
+      <c r="AB10" s="67">
         <f t="shared" ref="AB10:AB40" si="3">IF(AA10="","",AA10/$AA$6*100)</f>
-        <v/>
-      </c>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="111">
+        <v>64</v>
+      </c>
+      <c r="AD10" s="67">
         <f t="shared" ref="AD10:AD40" si="4">IF(AC10="","",AC10/$AC$5*100)</f>
-        <v/>
-      </c>
-      <c r="AE10" s="66" t="str">
+        <v>64</v>
+      </c>
+      <c r="AE10" s="66">
         <f>CRS!H10</f>
-        <v/>
-      </c>
-      <c r="AF10" s="64" t="str">
+        <v>73.460000000000008</v>
+      </c>
+      <c r="AF10" s="64">
         <f>CRS!I10</f>
-        <v/>
+        <v>87</v>
       </c>
       <c r="AG10" s="61"/>
       <c r="AH10" s="61"/>
@@ -21951,13 +22067,13 @@
       <c r="B46" s="324"/>
       <c r="C46" s="325"/>
       <c r="D46" s="325"/>
-      <c r="E46" s="57" t="str">
+      <c r="E46" s="57">
         <f t="shared" ref="E46:N46" si="5">IF(E5="","",E5)</f>
-        <v/>
-      </c>
-      <c r="F46" s="57" t="str">
+        <v>15</v>
+      </c>
+      <c r="F46" s="57">
         <f t="shared" si="5"/>
-        <v/>
+        <v>15</v>
       </c>
       <c r="G46" s="57" t="str">
         <f t="shared" si="5"/>
@@ -21993,37 +22109,37 @@
       </c>
       <c r="O46" s="340"/>
       <c r="P46" s="311"/>
-      <c r="Q46" s="57" t="str">
+      <c r="Q46" s="57">
         <f>IF(Q5="","",Q5)</f>
-        <v/>
-      </c>
-      <c r="R46" s="57" t="str">
+        <v>40</v>
+      </c>
+      <c r="R46" s="57">
         <f t="shared" ref="R46:Z46" si="6">IF(R5="","",R5)</f>
-        <v/>
-      </c>
-      <c r="S46" s="57" t="str">
+        <v>40</v>
+      </c>
+      <c r="S46" s="57">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="T46" s="57" t="str">
+        <v>40</v>
+      </c>
+      <c r="T46" s="57">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="U46" s="57" t="str">
+        <v>40</v>
+      </c>
+      <c r="U46" s="57">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V46" s="57" t="str">
+        <v>40</v>
+      </c>
+      <c r="V46" s="57">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="W46" s="57" t="str">
+        <v>40</v>
+      </c>
+      <c r="W46" s="57">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="X46" s="57" t="str">
+        <v>40</v>
+      </c>
+      <c r="X46" s="57">
         <f t="shared" si="6"/>
-        <v/>
+        <v>40</v>
       </c>
       <c r="Y46" s="57" t="str">
         <f t="shared" si="6"/>
@@ -22035,9 +22151,9 @@
       </c>
       <c r="AA46" s="341"/>
       <c r="AB46" s="312"/>
-      <c r="AC46" s="57" t="str">
+      <c r="AC46" s="57">
         <f>IF(AC5="","",AC5)</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AD46" s="349"/>
       <c r="AE46" s="347"/>
@@ -22058,11 +22174,11 @@
       <c r="D47" s="304"/>
       <c r="E47" s="317" t="str">
         <f>IF(E6="","",E6)</f>
-        <v/>
+        <v>QCH01</v>
       </c>
       <c r="F47" s="317" t="str">
         <f t="shared" ref="F47:N47" si="7">IF(F6="","",F6)</f>
-        <v/>
+        <v>QCH02</v>
       </c>
       <c r="G47" s="317" t="str">
         <f t="shared" si="7"/>
@@ -22096,42 +22212,42 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O47" s="369" t="str">
+      <c r="O47" s="369">
         <f>O6</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="P47" s="311"/>
       <c r="Q47" s="317" t="str">
         <f t="shared" ref="Q47:Z47" si="8">IF(Q6="","",Q6)</f>
-        <v/>
+        <v>CB</v>
       </c>
       <c r="R47" s="317" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>PS01</v>
       </c>
       <c r="S47" s="317" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>PS02</v>
       </c>
       <c r="T47" s="317" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>PS03</v>
       </c>
       <c r="U47" s="317" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>PS04</v>
       </c>
       <c r="V47" s="317" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>PS05</v>
       </c>
       <c r="W47" s="317" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>PS06</v>
       </c>
       <c r="X47" s="317" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>PS07</v>
       </c>
       <c r="Y47" s="317" t="str">
         <f t="shared" si="8"/>
@@ -22141,9 +22257,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AA47" s="369" t="str">
+      <c r="AA47" s="369">
         <f>AA6</f>
-        <v/>
+        <v>320</v>
       </c>
       <c r="AB47" s="312"/>
       <c r="AC47" s="308">
@@ -37190,9 +37306,9 @@
         <v>BSCS-MOBILE TECH TRACK-2</v>
       </c>
       <c r="H15" s="133"/>
-      <c r="I15" s="144" t="str">
+      <c r="I15" s="144">
         <f>IF(CRS!I9="","",CRS!I9)</f>
-        <v/>
+        <v>76</v>
       </c>
       <c r="J15" s="145"/>
       <c r="K15" s="144" t="str">
@@ -37249,9 +37365,9 @@
         <v>BSCS-MOBILE TECH TRACK-2</v>
       </c>
       <c r="H16" s="133"/>
-      <c r="I16" s="144" t="str">
+      <c r="I16" s="144">
         <f>IF(CRS!I10="","",CRS!I10)</f>
-        <v/>
+        <v>87</v>
       </c>
       <c r="J16" s="145"/>
       <c r="K16" s="144" t="str">
